--- a/汽柴煤油2.0/eta/中石化航空煤油企业结算价Non-Trend—F0.2_合并数据.xlsx
+++ b/汽柴煤油2.0/eta/中石化航空煤油企业结算价Non-Trend—F0.2_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-2.2537</v>
+        <v>-3.5056</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>36.2665</v>
+        <v>34.4601</v>
       </c>
     </row>
     <row r="4">
